--- a/conf-core/src/test/resources/dataloader/slot-pairs-test.xlsx
+++ b/conf-core/src/test/resources/dataloader/slot-pairs-test.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\dataloader-tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="4440" windowWidth="23136" windowHeight="12660"/>
+    <workbookView xWindow="1065" yWindow="4440" windowWidth="23130" windowHeight="12660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -562,24 +567,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -605,15 +596,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -623,6 +608,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -671,7 +659,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -706,7 +694,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -917,36 +905,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E326"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>41557</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C3" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -960,7 +943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -974,7 +957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -984,11 +967,11 @@
       <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -998,188 +981,184 @@
       <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s">
         <v>11</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1189,11 +1168,11 @@
       <c r="C26" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1203,11 +1182,11 @@
       <c r="C27" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1217,11 +1196,11 @@
       <c r="C28" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1231,11 +1210,11 @@
       <c r="C29" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -1245,11 +1224,11 @@
       <c r="C30" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -1259,11 +1238,11 @@
       <c r="C31" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1273,11 +1252,11 @@
       <c r="C32" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -1287,353 +1266,352 @@
       <c r="C33" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D34" s="3"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>6</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>6</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>6</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>6</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>6</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" t="s">
         <v>154</v>
       </c>
       <c r="D41" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>6</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" t="s">
         <v>155</v>
       </c>
       <c r="D42" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>6</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" t="s">
         <v>156</v>
       </c>
       <c r="D43" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
       <c r="B44" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" t="s">
         <v>156</v>
       </c>
       <c r="D44" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>6</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" t="s">
         <v>158</v>
       </c>
       <c r="D45" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>6</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" t="s">
         <v>158</v>
       </c>
       <c r="D46" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>6</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" t="s">
         <v>158</v>
       </c>
       <c r="D47" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>6</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" t="s">
         <v>159</v>
       </c>
       <c r="D48" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>6</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" t="s">
         <v>159</v>
       </c>
       <c r="D49" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" t="s">
         <v>159</v>
       </c>
       <c r="D50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>6</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" t="s">
         <v>159</v>
       </c>
       <c r="D51" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>6</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" t="s">
         <v>159</v>
       </c>
       <c r="D52" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>6</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" t="s">
         <v>157</v>
       </c>
       <c r="D53" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>6</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" t="s">
         <v>157</v>
       </c>
       <c r="D54" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>6</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" t="s">
         <v>157</v>
       </c>
       <c r="D55" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>6</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" t="s">
         <v>157</v>
       </c>
       <c r="D56" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>6</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" t="s">
         <v>157</v>
       </c>
       <c r="D57" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>6</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" t="s">
         <v>157</v>
       </c>
       <c r="D58" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -1643,11 +1621,11 @@
       <c r="C60" t="s">
         <v>17</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -1657,11 +1635,11 @@
       <c r="C61" t="s">
         <v>17</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -1671,11 +1649,11 @@
       <c r="C62" t="s">
         <v>17</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -1685,11 +1663,11 @@
       <c r="C63" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -1699,11 +1677,11 @@
       <c r="C64" t="s">
         <v>17</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -1713,11 +1691,11 @@
       <c r="C65" t="s">
         <v>17</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -1727,11 +1705,11 @@
       <c r="C66" t="s">
         <v>17</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -1741,11 +1719,11 @@
       <c r="C67" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -1755,11 +1733,11 @@
       <c r="C68" t="s">
         <v>17</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -1769,11 +1747,11 @@
       <c r="C69" t="s">
         <v>17</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -1783,11 +1761,11 @@
       <c r="C70" t="s">
         <v>17</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -1797,11 +1775,11 @@
       <c r="C71" t="s">
         <v>17</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -1811,11 +1789,11 @@
       <c r="C72" t="s">
         <v>17</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -1825,11 +1803,11 @@
       <c r="C73" t="s">
         <v>17</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -1839,11 +1817,11 @@
       <c r="C74" t="s">
         <v>17</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D74" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -1853,11 +1831,11 @@
       <c r="C75" t="s">
         <v>17</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D75" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -1867,11 +1845,11 @@
       <c r="C76" t="s">
         <v>17</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D76" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -1881,11 +1859,11 @@
       <c r="C77" t="s">
         <v>17</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D77" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -1895,11 +1873,11 @@
       <c r="C78" t="s">
         <v>17</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D78" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -1909,11 +1887,11 @@
       <c r="C79" t="s">
         <v>17</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D79" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -1923,11 +1901,11 @@
       <c r="C80" t="s">
         <v>17</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D80" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -1937,11 +1915,11 @@
       <c r="C81" t="s">
         <v>17</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D81" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -1951,11 +1929,11 @@
       <c r="C82" t="s">
         <v>17</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D82" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>6</v>
       </c>
@@ -1965,11 +1943,11 @@
       <c r="C83" t="s">
         <v>17</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D83" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>6</v>
       </c>
@@ -1979,11 +1957,11 @@
       <c r="C84" t="s">
         <v>17</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D84" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>6</v>
       </c>
@@ -1993,11 +1971,11 @@
       <c r="C85" t="s">
         <v>17</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D85" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -2007,11 +1985,11 @@
       <c r="C86" t="s">
         <v>17</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D86" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>6</v>
       </c>
@@ -2021,11 +1999,11 @@
       <c r="C87" t="s">
         <v>17</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="D87" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>6</v>
       </c>
@@ -2039,7 +2017,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -2053,7 +2031,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -2067,7 +2045,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -2081,7 +2059,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>6</v>
       </c>
@@ -2095,7 +2073,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -2109,7 +2087,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>6</v>
       </c>
@@ -2123,7 +2101,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>6</v>
       </c>
@@ -2137,7 +2115,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -2151,7 +2129,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -2165,7 +2143,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>6</v>
       </c>
@@ -2179,7 +2157,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>6</v>
       </c>
@@ -2193,7 +2171,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>6</v>
       </c>
@@ -2207,7 +2185,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>6</v>
       </c>
@@ -2217,11 +2195,11 @@
       <c r="C104" t="s">
         <v>19</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D104" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>6</v>
       </c>
@@ -2231,11 +2209,11 @@
       <c r="C105" t="s">
         <v>19</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D105" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>6</v>
       </c>
@@ -2245,11 +2223,11 @@
       <c r="C106" t="s">
         <v>19</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="D106" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>6</v>
       </c>
@@ -2259,11 +2237,11 @@
       <c r="C107" t="s">
         <v>19</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D107" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>6</v>
       </c>
@@ -2273,11 +2251,11 @@
       <c r="C108" t="s">
         <v>19</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="D108" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>6</v>
       </c>
@@ -2287,11 +2265,11 @@
       <c r="C109" t="s">
         <v>19</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D109" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>6</v>
       </c>
@@ -2301,11 +2279,11 @@
       <c r="C110" t="s">
         <v>19</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D110" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>6</v>
       </c>
@@ -2315,11 +2293,11 @@
       <c r="C111" t="s">
         <v>19</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D111" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>6</v>
       </c>
@@ -2329,11 +2307,11 @@
       <c r="C112" t="s">
         <v>19</v>
       </c>
-      <c r="D112" s="3" t="s">
+      <c r="D112" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>6</v>
       </c>
@@ -2343,11 +2321,11 @@
       <c r="C113" t="s">
         <v>19</v>
       </c>
-      <c r="D113" s="3" t="s">
+      <c r="D113" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>6</v>
       </c>
@@ -2357,11 +2335,11 @@
       <c r="C114" t="s">
         <v>19</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="D114" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>6</v>
       </c>
@@ -2371,11 +2349,11 @@
       <c r="C115" t="s">
         <v>19</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="D115" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>6</v>
       </c>
@@ -2385,11 +2363,11 @@
       <c r="C116" t="s">
         <v>19</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="D116" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>6</v>
       </c>
@@ -2399,11 +2377,11 @@
       <c r="C117" t="s">
         <v>19</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="D117" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>6</v>
       </c>
@@ -2413,11 +2391,11 @@
       <c r="C118" t="s">
         <v>19</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D118" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>6</v>
       </c>
@@ -2427,11 +2405,11 @@
       <c r="C119" t="s">
         <v>19</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="D119" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>6</v>
       </c>
@@ -2441,11 +2419,11 @@
       <c r="C120" t="s">
         <v>19</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="D120" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>6</v>
       </c>
@@ -2455,11 +2433,11 @@
       <c r="C121" t="s">
         <v>19</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="D121" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>6</v>
       </c>
@@ -2469,11 +2447,11 @@
       <c r="C122" t="s">
         <v>19</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="D122" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>6</v>
       </c>
@@ -2483,11 +2461,11 @@
       <c r="C123" t="s">
         <v>19</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="D123" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>6</v>
       </c>
@@ -2497,11 +2475,11 @@
       <c r="C124" t="s">
         <v>19</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="D124" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>6</v>
       </c>
@@ -2511,11 +2489,11 @@
       <c r="C125" t="s">
         <v>19</v>
       </c>
-      <c r="D125" s="3" t="s">
+      <c r="D125" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>6</v>
       </c>
@@ -2525,11 +2503,11 @@
       <c r="C126" t="s">
         <v>19</v>
       </c>
-      <c r="D126" s="3" t="s">
+      <c r="D126" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>6</v>
       </c>
@@ -2539,11 +2517,11 @@
       <c r="C127" t="s">
         <v>19</v>
       </c>
-      <c r="D127" s="3" t="s">
+      <c r="D127" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>6</v>
       </c>
@@ -2553,11 +2531,11 @@
       <c r="C128" t="s">
         <v>19</v>
       </c>
-      <c r="D128" s="4" t="s">
+      <c r="D128" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>6</v>
       </c>
@@ -2567,11 +2545,11 @@
       <c r="C129" t="s">
         <v>19</v>
       </c>
-      <c r="D129" s="4" t="s">
+      <c r="D129" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>6</v>
       </c>
@@ -2581,11 +2559,11 @@
       <c r="C130" t="s">
         <v>19</v>
       </c>
-      <c r="D130" s="4" t="s">
+      <c r="D130" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>6</v>
       </c>
@@ -2595,11 +2573,11 @@
       <c r="C131" t="s">
         <v>19</v>
       </c>
-      <c r="D131" s="4" t="s">
+      <c r="D131" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>6</v>
       </c>
@@ -2609,11 +2587,11 @@
       <c r="C132" t="s">
         <v>19</v>
       </c>
-      <c r="D132" s="4" t="s">
+      <c r="D132" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>6</v>
       </c>
@@ -2623,11 +2601,11 @@
       <c r="C133" t="s">
         <v>19</v>
       </c>
-      <c r="D133" s="4" t="s">
+      <c r="D133" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>6</v>
       </c>
@@ -2637,11 +2615,11 @@
       <c r="C134" t="s">
         <v>19</v>
       </c>
-      <c r="D134" s="4" t="s">
+      <c r="D134" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>6</v>
       </c>
@@ -2651,11 +2629,11 @@
       <c r="C135" t="s">
         <v>19</v>
       </c>
-      <c r="D135" s="4" t="s">
+      <c r="D135" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>6</v>
       </c>
@@ -2665,11 +2643,11 @@
       <c r="C136" t="s">
         <v>19</v>
       </c>
-      <c r="D136" s="4" t="s">
+      <c r="D136" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>6</v>
       </c>
@@ -2679,11 +2657,11 @@
       <c r="C137" t="s">
         <v>19</v>
       </c>
-      <c r="D137" s="4" t="s">
+      <c r="D137" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>6</v>
       </c>
@@ -2693,11 +2671,11 @@
       <c r="C138" t="s">
         <v>19</v>
       </c>
-      <c r="D138" s="4" t="s">
+      <c r="D138" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>6</v>
       </c>
@@ -2707,11 +2685,11 @@
       <c r="C139" t="s">
         <v>19</v>
       </c>
-      <c r="D139" s="4" t="s">
+      <c r="D139" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>6</v>
       </c>
@@ -2721,11 +2699,11 @@
       <c r="C140" t="s">
         <v>19</v>
       </c>
-      <c r="D140" s="4" t="s">
+      <c r="D140" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>6</v>
       </c>
@@ -2735,11 +2713,11 @@
       <c r="C141" t="s">
         <v>19</v>
       </c>
-      <c r="D141" s="4" t="s">
+      <c r="D141" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>6</v>
       </c>
@@ -2749,11 +2727,11 @@
       <c r="C142" t="s">
         <v>19</v>
       </c>
-      <c r="D142" s="4" t="s">
+      <c r="D142" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>6</v>
       </c>
@@ -2763,11 +2741,11 @@
       <c r="C143" t="s">
         <v>19</v>
       </c>
-      <c r="D143" s="4" t="s">
+      <c r="D143" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>6</v>
       </c>
@@ -2777,11 +2755,11 @@
       <c r="C144" t="s">
         <v>19</v>
       </c>
-      <c r="D144" s="4" t="s">
+      <c r="D144" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>6</v>
       </c>
@@ -2791,11 +2769,11 @@
       <c r="C145" t="s">
         <v>19</v>
       </c>
-      <c r="D145" s="4" t="s">
+      <c r="D145" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>6</v>
       </c>
@@ -2805,11 +2783,11 @@
       <c r="C146" t="s">
         <v>19</v>
       </c>
-      <c r="D146" s="4" t="s">
+      <c r="D146" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>6</v>
       </c>
@@ -2819,11 +2797,11 @@
       <c r="C147" t="s">
         <v>19</v>
       </c>
-      <c r="D147" s="4" t="s">
+      <c r="D147" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>6</v>
       </c>
@@ -2833,11 +2811,11 @@
       <c r="C148" t="s">
         <v>19</v>
       </c>
-      <c r="D148" s="4" t="s">
+      <c r="D148" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>6</v>
       </c>
@@ -2847,11 +2825,11 @@
       <c r="C149" t="s">
         <v>19</v>
       </c>
-      <c r="D149" s="4" t="s">
+      <c r="D149" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>6</v>
       </c>
@@ -2861,11 +2839,11 @@
       <c r="C150" t="s">
         <v>19</v>
       </c>
-      <c r="D150" s="4" t="s">
+      <c r="D150" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>6</v>
       </c>
@@ -2875,11 +2853,11 @@
       <c r="C151" t="s">
         <v>19</v>
       </c>
-      <c r="D151" s="4" t="s">
+      <c r="D151" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>6</v>
       </c>
@@ -2893,7 +2871,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>6</v>
       </c>
@@ -2907,7 +2885,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>6</v>
       </c>
@@ -2921,7 +2899,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>6</v>
       </c>
@@ -2935,7 +2913,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>6</v>
       </c>
@@ -2945,11 +2923,11 @@
       <c r="C160" t="s">
         <v>21</v>
       </c>
-      <c r="D160" s="3" t="s">
+      <c r="D160" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>6</v>
       </c>
@@ -2959,11 +2937,11 @@
       <c r="C161" t="s">
         <v>21</v>
       </c>
-      <c r="D161" s="3" t="s">
+      <c r="D161" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>6</v>
       </c>
@@ -2973,11 +2951,11 @@
       <c r="C162" t="s">
         <v>21</v>
       </c>
-      <c r="D162" s="3" t="s">
+      <c r="D162" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>6</v>
       </c>
@@ -2987,11 +2965,11 @@
       <c r="C163" t="s">
         <v>21</v>
       </c>
-      <c r="D163" s="3" t="s">
+      <c r="D163" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>6</v>
       </c>
@@ -3001,11 +2979,11 @@
       <c r="C164" t="s">
         <v>21</v>
       </c>
-      <c r="D164" s="3" t="s">
+      <c r="D164" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>6</v>
       </c>
@@ -3015,11 +2993,11 @@
       <c r="C165" t="s">
         <v>21</v>
       </c>
-      <c r="D165" s="3" t="s">
+      <c r="D165" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>6</v>
       </c>
@@ -3029,11 +3007,11 @@
       <c r="C166" t="s">
         <v>21</v>
       </c>
-      <c r="D166" s="3" t="s">
+      <c r="D166" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>6</v>
       </c>
@@ -3043,11 +3021,11 @@
       <c r="C167" t="s">
         <v>21</v>
       </c>
-      <c r="D167" s="3" t="s">
+      <c r="D167" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>6</v>
       </c>
@@ -3057,11 +3035,11 @@
       <c r="C168" t="s">
         <v>21</v>
       </c>
-      <c r="D168" s="3" t="s">
+      <c r="D168" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>6</v>
       </c>
@@ -3071,11 +3049,11 @@
       <c r="C169" t="s">
         <v>21</v>
       </c>
-      <c r="D169" s="3" t="s">
+      <c r="D169" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>6</v>
       </c>
@@ -3085,11 +3063,11 @@
       <c r="C170" t="s">
         <v>21</v>
       </c>
-      <c r="D170" s="3" t="s">
+      <c r="D170" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>6</v>
       </c>
@@ -3099,11 +3077,11 @@
       <c r="C171" t="s">
         <v>21</v>
       </c>
-      <c r="D171" s="3" t="s">
+      <c r="D171" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>6</v>
       </c>
@@ -3117,7 +3095,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>6</v>
       </c>
@@ -3131,7 +3109,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>6</v>
       </c>
@@ -3145,19 +3123,19 @@
         <v>139</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>6</v>
       </c>
       <c r="B179" t="s">
         <v>7</v>
       </c>
-      <c r="C179" s="3" t="s">
+      <c r="C179" t="s">
         <v>24</v>
       </c>
       <c r="D179" t="str">
@@ -3165,14 +3143,14 @@
         <v>FE_SRC1:%</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>6</v>
       </c>
       <c r="B180" t="s">
         <v>7</v>
       </c>
-      <c r="C180" s="3" t="s">
+      <c r="C180" t="s">
         <v>25</v>
       </c>
       <c r="D180" t="str">
@@ -3180,14 +3158,14 @@
         <v>FE_SRC2:%</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>6</v>
       </c>
       <c r="B181" t="s">
         <v>7</v>
       </c>
-      <c r="C181" s="3" t="s">
+      <c r="C181" t="s">
         <v>26</v>
       </c>
       <c r="D181" t="str">
@@ -3195,14 +3173,14 @@
         <v>FE_SCS1:%</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>6</v>
       </c>
       <c r="B182" t="s">
         <v>7</v>
       </c>
-      <c r="C182" s="3" t="s">
+      <c r="C182" t="s">
         <v>27</v>
       </c>
       <c r="D182" t="str">
@@ -3210,14 +3188,14 @@
         <v>FE_SCS2:%</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>6</v>
       </c>
       <c r="B183" t="s">
         <v>7</v>
       </c>
-      <c r="C183" s="3" t="s">
+      <c r="C183" t="s">
         <v>28</v>
       </c>
       <c r="D183" t="str">
@@ -3225,14 +3203,14 @@
         <v>FE_LEBT:%</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>6</v>
       </c>
       <c r="B184" t="s">
         <v>7</v>
       </c>
-      <c r="C184" s="3" t="s">
+      <c r="C184" t="s">
         <v>29</v>
       </c>
       <c r="D184" t="str">
@@ -3240,14 +3218,14 @@
         <v>FE_RFQ:%</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>6</v>
       </c>
       <c r="B185" t="s">
         <v>7</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="C185" t="s">
         <v>30</v>
       </c>
       <c r="D185" t="str">
@@ -3255,14 +3233,14 @@
         <v>FE_MEBT:%</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>6</v>
       </c>
       <c r="B186" t="s">
         <v>7</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="C186" t="s">
         <v>31</v>
       </c>
       <c r="D186" t="str">
@@ -3270,14 +3248,14 @@
         <v>FE_BTS:%</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>6</v>
       </c>
       <c r="B189" t="s">
         <v>7</v>
       </c>
-      <c r="C189" s="3" t="s">
+      <c r="C189" t="s">
         <v>32</v>
       </c>
       <c r="D189" t="str">
@@ -3285,14 +3263,14 @@
         <v>LS1_CA01:%</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>6</v>
       </c>
       <c r="B190" t="s">
         <v>7</v>
       </c>
-      <c r="C190" s="3" t="s">
+      <c r="C190" t="s">
         <v>33</v>
       </c>
       <c r="D190" t="str">
@@ -3300,14 +3278,14 @@
         <v>LS1_WA01:%</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>6</v>
       </c>
       <c r="B191" t="s">
         <v>7</v>
       </c>
-      <c r="C191" s="3" t="s">
+      <c r="C191" t="s">
         <v>34</v>
       </c>
       <c r="D191" t="str">
@@ -3315,14 +3293,14 @@
         <v>LS1_CA02:%</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>6</v>
       </c>
       <c r="B192" t="s">
         <v>7</v>
       </c>
-      <c r="C192" s="3" t="s">
+      <c r="C192" t="s">
         <v>35</v>
       </c>
       <c r="D192" t="str">
@@ -3330,14 +3308,14 @@
         <v>LS1_WA02:%</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>6</v>
       </c>
       <c r="B193" t="s">
         <v>7</v>
       </c>
-      <c r="C193" s="3" t="s">
+      <c r="C193" t="s">
         <v>36</v>
       </c>
       <c r="D193" t="str">
@@ -3345,14 +3323,14 @@
         <v>LS1_CA03:%</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>6</v>
       </c>
       <c r="B194" t="s">
         <v>7</v>
       </c>
-      <c r="C194" s="3" t="s">
+      <c r="C194" t="s">
         <v>37</v>
       </c>
       <c r="D194" t="str">
@@ -3360,14 +3338,14 @@
         <v>LS1_WA03:%</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>6</v>
       </c>
       <c r="B195" t="s">
         <v>7</v>
       </c>
-      <c r="C195" s="4" t="s">
+      <c r="C195" t="s">
         <v>38</v>
       </c>
       <c r="D195" t="str">
@@ -3375,14 +3353,14 @@
         <v>LS1_CB01:%</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>6</v>
       </c>
       <c r="B196" t="s">
         <v>7</v>
       </c>
-      <c r="C196" s="4" t="s">
+      <c r="C196" t="s">
         <v>39</v>
       </c>
       <c r="D196" t="str">
@@ -3390,14 +3368,14 @@
         <v>LS1_WB01:%</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>6</v>
       </c>
       <c r="B197" t="s">
         <v>7</v>
       </c>
-      <c r="C197" s="4" t="s">
+      <c r="C197" t="s">
         <v>40</v>
       </c>
       <c r="D197" t="str">
@@ -3405,14 +3383,14 @@
         <v>LS1_CB02:%</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>6</v>
       </c>
       <c r="B198" t="s">
         <v>7</v>
       </c>
-      <c r="C198" s="4" t="s">
+      <c r="C198" t="s">
         <v>41</v>
       </c>
       <c r="D198" t="str">
@@ -3420,14 +3398,14 @@
         <v>LS1_WB02:%</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>6</v>
       </c>
       <c r="B199" t="s">
         <v>7</v>
       </c>
-      <c r="C199" s="4" t="s">
+      <c r="C199" t="s">
         <v>42</v>
       </c>
       <c r="D199" t="str">
@@ -3435,14 +3413,14 @@
         <v>LS1_CB03:%</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>6</v>
       </c>
       <c r="B200" t="s">
         <v>7</v>
       </c>
-      <c r="C200" s="4" t="s">
+      <c r="C200" t="s">
         <v>43</v>
       </c>
       <c r="D200" t="str">
@@ -3450,14 +3428,14 @@
         <v>LS1_WB03:%</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>6</v>
       </c>
       <c r="B201" t="s">
         <v>7</v>
       </c>
-      <c r="C201" s="4" t="s">
+      <c r="C201" t="s">
         <v>44</v>
       </c>
       <c r="D201" t="str">
@@ -3465,14 +3443,14 @@
         <v>LS1_CB04:%</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>6</v>
       </c>
       <c r="B202" t="s">
         <v>7</v>
       </c>
-      <c r="C202" s="4" t="s">
+      <c r="C202" t="s">
         <v>45</v>
       </c>
       <c r="D202" t="str">
@@ -3480,14 +3458,14 @@
         <v>LS1_WB04:%</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>6</v>
       </c>
       <c r="B203" t="s">
         <v>7</v>
       </c>
-      <c r="C203" s="4" t="s">
+      <c r="C203" t="s">
         <v>46</v>
       </c>
       <c r="D203" t="str">
@@ -3495,14 +3473,14 @@
         <v>LS1_CB05:%</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>6</v>
       </c>
       <c r="B204" t="s">
         <v>7</v>
       </c>
-      <c r="C204" s="4" t="s">
+      <c r="C204" t="s">
         <v>47</v>
       </c>
       <c r="D204" t="str">
@@ -3510,14 +3488,14 @@
         <v>LS1_WB05:%</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>6</v>
       </c>
       <c r="B205" t="s">
         <v>7</v>
       </c>
-      <c r="C205" s="4" t="s">
+      <c r="C205" t="s">
         <v>48</v>
       </c>
       <c r="D205" t="str">
@@ -3525,14 +3503,14 @@
         <v>LS1_CB06:%</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>6</v>
       </c>
       <c r="B206" t="s">
         <v>7</v>
       </c>
-      <c r="C206" s="4" t="s">
+      <c r="C206" t="s">
         <v>49</v>
       </c>
       <c r="D206" t="str">
@@ -3540,14 +3518,14 @@
         <v>LS1_WB06:%</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>6</v>
       </c>
       <c r="B207" t="s">
         <v>7</v>
       </c>
-      <c r="C207" s="4" t="s">
+      <c r="C207" t="s">
         <v>50</v>
       </c>
       <c r="D207" t="str">
@@ -3555,14 +3533,14 @@
         <v>LS1_CB07:%</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>6</v>
       </c>
       <c r="B208" t="s">
         <v>7</v>
       </c>
-      <c r="C208" s="4" t="s">
+      <c r="C208" t="s">
         <v>51</v>
       </c>
       <c r="D208" t="str">
@@ -3570,14 +3548,14 @@
         <v>LS1_WB07:%</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>6</v>
       </c>
       <c r="B209" t="s">
         <v>7</v>
       </c>
-      <c r="C209" s="4" t="s">
+      <c r="C209" t="s">
         <v>52</v>
       </c>
       <c r="D209" t="str">
@@ -3585,14 +3563,14 @@
         <v>LS1_CB08:%</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>6</v>
       </c>
       <c r="B210" t="s">
         <v>7</v>
       </c>
-      <c r="C210" s="4" t="s">
+      <c r="C210" t="s">
         <v>53</v>
       </c>
       <c r="D210" t="str">
@@ -3600,14 +3578,14 @@
         <v>LS1_WB08:%</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>6</v>
       </c>
       <c r="B211" t="s">
         <v>7</v>
       </c>
-      <c r="C211" s="4" t="s">
+      <c r="C211" t="s">
         <v>54</v>
       </c>
       <c r="D211" t="str">
@@ -3615,14 +3593,14 @@
         <v>LS1_CB09:%</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>6</v>
       </c>
       <c r="B212" t="s">
         <v>7</v>
       </c>
-      <c r="C212" s="4" t="s">
+      <c r="C212" t="s">
         <v>55</v>
       </c>
       <c r="D212" t="str">
@@ -3630,14 +3608,14 @@
         <v>LS1_WB09:%</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>6</v>
       </c>
       <c r="B213" t="s">
         <v>7</v>
       </c>
-      <c r="C213" s="4" t="s">
+      <c r="C213" t="s">
         <v>56</v>
       </c>
       <c r="D213" t="str">
@@ -3645,14 +3623,14 @@
         <v>LS1_CB10:%</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>6</v>
       </c>
       <c r="B214" t="s">
         <v>7</v>
       </c>
-      <c r="C214" s="4" t="s">
+      <c r="C214" t="s">
         <v>57</v>
       </c>
       <c r="D214" t="str">
@@ -3660,14 +3638,14 @@
         <v>LS1_WB10:%</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>6</v>
       </c>
       <c r="B215" t="s">
         <v>7</v>
       </c>
-      <c r="C215" s="4" t="s">
+      <c r="C215" t="s">
         <v>58</v>
       </c>
       <c r="D215" t="str">
@@ -3675,14 +3653,14 @@
         <v>LS1_CB11:%</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>6</v>
       </c>
       <c r="B216" t="s">
         <v>7</v>
       </c>
-      <c r="C216" s="4" t="s">
+      <c r="C216" t="s">
         <v>59</v>
       </c>
       <c r="D216" t="str">
@@ -3690,7 +3668,7 @@
         <v>LS1_WB11:%</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
         <v>7</v>
       </c>
@@ -3702,7 +3680,7 @@
         <v>LS1_BTS1:%</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>6</v>
       </c>
@@ -3717,7 +3695,7 @@
         <v>LS1_CF01:%</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
         <v>7</v>
       </c>
@@ -3729,7 +3707,7 @@
         <v>LS1_BTS2:%</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>6</v>
       </c>
@@ -3744,7 +3722,7 @@
         <v>FS1_CF02:%</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>6</v>
       </c>
@@ -3759,7 +3737,7 @@
         <v>FS1_CSS:%</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>6</v>
       </c>
@@ -3774,7 +3752,7 @@
         <v>FS1_STRL:%</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>6</v>
       </c>
@@ -3789,7 +3767,7 @@
         <v>FS1_CE01:%</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>6</v>
       </c>
@@ -3804,7 +3782,7 @@
         <v>FS1_CH01:%</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>6</v>
       </c>
@@ -3819,7 +3797,7 @@
         <v>FS1_BBS:%</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>6</v>
       </c>
@@ -3834,7 +3812,7 @@
         <v>FS1_BMS:%</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>6</v>
       </c>
@@ -3849,7 +3827,7 @@
         <v>FS1_CE02:%</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>6</v>
       </c>
@@ -3864,7 +3842,7 @@
         <v>FS1_CH02:%</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>6</v>
       </c>
@@ -3879,14 +3857,14 @@
         <v>FS1_BTS:%</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>6</v>
       </c>
       <c r="B232" t="s">
         <v>7</v>
       </c>
-      <c r="C232" s="3" t="s">
+      <c r="C232" t="s">
         <v>73</v>
       </c>
       <c r="D232" t="str">
@@ -3894,14 +3872,14 @@
         <v>LS2_CC01:%</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>6</v>
       </c>
       <c r="B233" t="s">
         <v>7</v>
       </c>
-      <c r="C233" s="3" t="s">
+      <c r="C233" t="s">
         <v>74</v>
       </c>
       <c r="D233" t="str">
@@ -3909,14 +3887,14 @@
         <v>LS2_WC01:%</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>6</v>
       </c>
       <c r="B234" t="s">
         <v>7</v>
       </c>
-      <c r="C234" s="3" t="s">
+      <c r="C234" t="s">
         <v>75</v>
       </c>
       <c r="D234" t="str">
@@ -3924,14 +3902,14 @@
         <v>LS2_CC02:%</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>6</v>
       </c>
       <c r="B235" t="s">
         <v>7</v>
       </c>
-      <c r="C235" s="3" t="s">
+      <c r="C235" t="s">
         <v>76</v>
       </c>
       <c r="D235" t="str">
@@ -3939,14 +3917,14 @@
         <v>LS2_WC02:%</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>6</v>
       </c>
       <c r="B236" t="s">
         <v>7</v>
       </c>
-      <c r="C236" s="3" t="s">
+      <c r="C236" t="s">
         <v>77</v>
       </c>
       <c r="D236" t="str">
@@ -3954,14 +3932,14 @@
         <v>LS2_CC03:%</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>6</v>
       </c>
       <c r="B237" t="s">
         <v>7</v>
       </c>
-      <c r="C237" s="3" t="s">
+      <c r="C237" t="s">
         <v>78</v>
       </c>
       <c r="D237" t="str">
@@ -3969,14 +3947,14 @@
         <v>LS2_WC03:%</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>6</v>
       </c>
       <c r="B238" t="s">
         <v>7</v>
       </c>
-      <c r="C238" s="3" t="s">
+      <c r="C238" t="s">
         <v>79</v>
       </c>
       <c r="D238" t="str">
@@ -3984,14 +3962,14 @@
         <v>LS2_CC04:%</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>6</v>
       </c>
       <c r="B239" t="s">
         <v>7</v>
       </c>
-      <c r="C239" s="3" t="s">
+      <c r="C239" t="s">
         <v>80</v>
       </c>
       <c r="D239" t="str">
@@ -3999,14 +3977,14 @@
         <v>LS2_WC04:%</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>6</v>
       </c>
       <c r="B240" t="s">
         <v>7</v>
       </c>
-      <c r="C240" s="3" t="s">
+      <c r="C240" t="s">
         <v>81</v>
       </c>
       <c r="D240" t="str">
@@ -4014,14 +3992,14 @@
         <v>LS2_CC05:%</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>6</v>
       </c>
       <c r="B241" t="s">
         <v>7</v>
       </c>
-      <c r="C241" s="3" t="s">
+      <c r="C241" t="s">
         <v>82</v>
       </c>
       <c r="D241" t="str">
@@ -4029,14 +4007,14 @@
         <v>LS2_WC05:%</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>6</v>
       </c>
       <c r="B242" t="s">
         <v>7</v>
       </c>
-      <c r="C242" s="3" t="s">
+      <c r="C242" t="s">
         <v>83</v>
       </c>
       <c r="D242" t="str">
@@ -4044,14 +4022,14 @@
         <v>LS2_CC06:%</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>6</v>
       </c>
       <c r="B243" t="s">
         <v>7</v>
       </c>
-      <c r="C243" s="3" t="s">
+      <c r="C243" t="s">
         <v>84</v>
       </c>
       <c r="D243" t="str">
@@ -4059,14 +4037,14 @@
         <v>LS2_WC06:%</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>6</v>
       </c>
       <c r="B244" t="s">
         <v>7</v>
       </c>
-      <c r="C244" s="3" t="s">
+      <c r="C244" t="s">
         <v>85</v>
       </c>
       <c r="D244" t="str">
@@ -4074,14 +4052,14 @@
         <v>LS2_CC07:%</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>6</v>
       </c>
       <c r="B245" t="s">
         <v>7</v>
       </c>
-      <c r="C245" s="3" t="s">
+      <c r="C245" t="s">
         <v>86</v>
       </c>
       <c r="D245" t="str">
@@ -4089,14 +4067,14 @@
         <v>LS2_WC07:%</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>6</v>
       </c>
       <c r="B246" t="s">
         <v>7</v>
       </c>
-      <c r="C246" s="3" t="s">
+      <c r="C246" t="s">
         <v>87</v>
       </c>
       <c r="D246" t="str">
@@ -4104,14 +4082,14 @@
         <v>LS2_CC08:%</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>6</v>
       </c>
       <c r="B247" t="s">
         <v>7</v>
       </c>
-      <c r="C247" s="3" t="s">
+      <c r="C247" t="s">
         <v>88</v>
       </c>
       <c r="D247" t="str">
@@ -4119,14 +4097,14 @@
         <v>LS2_WC08:%</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>6</v>
       </c>
       <c r="B248" t="s">
         <v>7</v>
       </c>
-      <c r="C248" s="3" t="s">
+      <c r="C248" t="s">
         <v>89</v>
       </c>
       <c r="D248" t="str">
@@ -4134,14 +4112,14 @@
         <v>LS2_CC09:%</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>6</v>
       </c>
       <c r="B249" t="s">
         <v>7</v>
       </c>
-      <c r="C249" s="3" t="s">
+      <c r="C249" t="s">
         <v>90</v>
       </c>
       <c r="D249" t="str">
@@ -4149,14 +4127,14 @@
         <v>LS2_WC09:%</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>6</v>
       </c>
       <c r="B250" t="s">
         <v>7</v>
       </c>
-      <c r="C250" s="3" t="s">
+      <c r="C250" t="s">
         <v>91</v>
       </c>
       <c r="D250" t="str">
@@ -4164,14 +4142,14 @@
         <v>LS2_CC10:%</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>6</v>
       </c>
       <c r="B251" t="s">
         <v>7</v>
       </c>
-      <c r="C251" s="3" t="s">
+      <c r="C251" t="s">
         <v>92</v>
       </c>
       <c r="D251" t="str">
@@ -4179,14 +4157,14 @@
         <v>LS2_WC10:%</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>6</v>
       </c>
       <c r="B252" t="s">
         <v>7</v>
       </c>
-      <c r="C252" s="3" t="s">
+      <c r="C252" t="s">
         <v>93</v>
       </c>
       <c r="D252" t="str">
@@ -4194,14 +4172,14 @@
         <v>LS2_CC11:%</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>6</v>
       </c>
       <c r="B253" t="s">
         <v>7</v>
       </c>
-      <c r="C253" s="3" t="s">
+      <c r="C253" t="s">
         <v>94</v>
       </c>
       <c r="D253" t="str">
@@ -4209,14 +4187,14 @@
         <v>LS2_WC11:%</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>6</v>
       </c>
       <c r="B254" t="s">
         <v>7</v>
       </c>
-      <c r="C254" s="3" t="s">
+      <c r="C254" t="s">
         <v>95</v>
       </c>
       <c r="D254" t="str">
@@ -4224,14 +4202,14 @@
         <v>LS2_CC12:%</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>6</v>
       </c>
       <c r="B255" t="s">
         <v>7</v>
       </c>
-      <c r="C255" s="3" t="s">
+      <c r="C255" t="s">
         <v>96</v>
       </c>
       <c r="D255" t="str">
@@ -4239,14 +4217,14 @@
         <v>LS2_WC12:%</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>6</v>
       </c>
       <c r="B256" t="s">
         <v>7</v>
       </c>
-      <c r="C256" s="4" t="s">
+      <c r="C256" t="s">
         <v>97</v>
       </c>
       <c r="D256" t="str">
@@ -4254,14 +4232,14 @@
         <v>LS2_CD01:%</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>6</v>
       </c>
       <c r="B257" t="s">
         <v>7</v>
       </c>
-      <c r="C257" s="4" t="s">
+      <c r="C257" t="s">
         <v>98</v>
       </c>
       <c r="D257" t="str">
@@ -4269,14 +4247,14 @@
         <v>LS2_WD01:%</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>6</v>
       </c>
       <c r="B258" t="s">
         <v>7</v>
       </c>
-      <c r="C258" s="4" t="s">
+      <c r="C258" t="s">
         <v>99</v>
       </c>
       <c r="D258" t="str">
@@ -4284,14 +4262,14 @@
         <v>LS2_CD02:%</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>6</v>
       </c>
       <c r="B259" t="s">
         <v>7</v>
       </c>
-      <c r="C259" s="4" t="s">
+      <c r="C259" t="s">
         <v>100</v>
       </c>
       <c r="D259" t="str">
@@ -4299,14 +4277,14 @@
         <v>LS2_WD02:%</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>6</v>
       </c>
       <c r="B260" t="s">
         <v>7</v>
       </c>
-      <c r="C260" s="4" t="s">
+      <c r="C260" t="s">
         <v>101</v>
       </c>
       <c r="D260" t="str">
@@ -4314,14 +4292,14 @@
         <v>LS2_CD03:%</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>6</v>
       </c>
       <c r="B261" t="s">
         <v>7</v>
       </c>
-      <c r="C261" s="4" t="s">
+      <c r="C261" t="s">
         <v>102</v>
       </c>
       <c r="D261" t="str">
@@ -4329,14 +4307,14 @@
         <v>LS2_WD03:%</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>6</v>
       </c>
       <c r="B262" t="s">
         <v>7</v>
       </c>
-      <c r="C262" s="4" t="s">
+      <c r="C262" t="s">
         <v>103</v>
       </c>
       <c r="D262" t="str">
@@ -4344,14 +4322,14 @@
         <v>LS2_CD04:%</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>6</v>
       </c>
       <c r="B263" t="s">
         <v>7</v>
       </c>
-      <c r="C263" s="4" t="s">
+      <c r="C263" t="s">
         <v>104</v>
       </c>
       <c r="D263" t="str">
@@ -4359,14 +4337,14 @@
         <v>LS2_WD04:%</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>6</v>
       </c>
       <c r="B264" t="s">
         <v>7</v>
       </c>
-      <c r="C264" s="4" t="s">
+      <c r="C264" t="s">
         <v>105</v>
       </c>
       <c r="D264" t="str">
@@ -4374,14 +4352,14 @@
         <v>LS2_CD05:%</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>6</v>
       </c>
       <c r="B265" t="s">
         <v>7</v>
       </c>
-      <c r="C265" s="4" t="s">
+      <c r="C265" t="s">
         <v>106</v>
       </c>
       <c r="D265" t="str">
@@ -4389,14 +4367,14 @@
         <v>LS2_WD05:%</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>6</v>
       </c>
       <c r="B266" t="s">
         <v>7</v>
       </c>
-      <c r="C266" s="4" t="s">
+      <c r="C266" t="s">
         <v>107</v>
       </c>
       <c r="D266" t="str">
@@ -4404,14 +4382,14 @@
         <v>LS2_CD06:%</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>6</v>
       </c>
       <c r="B267" t="s">
         <v>7</v>
       </c>
-      <c r="C267" s="4" t="s">
+      <c r="C267" t="s">
         <v>108</v>
       </c>
       <c r="D267" t="str">
@@ -4419,14 +4397,14 @@
         <v>LS2_WD06:%</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>6</v>
       </c>
       <c r="B268" t="s">
         <v>7</v>
       </c>
-      <c r="C268" s="4" t="s">
+      <c r="C268" t="s">
         <v>109</v>
       </c>
       <c r="D268" t="str">
@@ -4434,14 +4412,14 @@
         <v>LS2_CD07:%</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>6</v>
       </c>
       <c r="B269" t="s">
         <v>7</v>
       </c>
-      <c r="C269" s="4" t="s">
+      <c r="C269" t="s">
         <v>110</v>
       </c>
       <c r="D269" t="str">
@@ -4449,14 +4427,14 @@
         <v>LS2_WD07:%</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>6</v>
       </c>
       <c r="B270" t="s">
         <v>7</v>
       </c>
-      <c r="C270" s="4" t="s">
+      <c r="C270" t="s">
         <v>111</v>
       </c>
       <c r="D270" t="str">
@@ -4464,14 +4442,14 @@
         <v>LS2_CD08:%</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>6</v>
       </c>
       <c r="B271" t="s">
         <v>7</v>
       </c>
-      <c r="C271" s="4" t="s">
+      <c r="C271" t="s">
         <v>112</v>
       </c>
       <c r="D271" t="str">
@@ -4479,14 +4457,14 @@
         <v>LS2_WD08:%</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>6</v>
       </c>
       <c r="B272" t="s">
         <v>7</v>
       </c>
-      <c r="C272" s="4" t="s">
+      <c r="C272" t="s">
         <v>113</v>
       </c>
       <c r="D272" t="str">
@@ -4494,14 +4472,14 @@
         <v>LS2_CD09:%</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>6</v>
       </c>
       <c r="B273" t="s">
         <v>7</v>
       </c>
-      <c r="C273" s="4" t="s">
+      <c r="C273" t="s">
         <v>114</v>
       </c>
       <c r="D273" t="str">
@@ -4509,14 +4487,14 @@
         <v>LS2_WD09:%</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>6</v>
       </c>
       <c r="B274" t="s">
         <v>7</v>
       </c>
-      <c r="C274" s="4" t="s">
+      <c r="C274" t="s">
         <v>115</v>
       </c>
       <c r="D274" t="str">
@@ -4524,14 +4502,14 @@
         <v>LS2_CD10:%</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>6</v>
       </c>
       <c r="B275" t="s">
         <v>7</v>
       </c>
-      <c r="C275" s="4" t="s">
+      <c r="C275" t="s">
         <v>116</v>
       </c>
       <c r="D275" t="str">
@@ -4539,14 +4517,14 @@
         <v>LS2_WD10:%</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>6</v>
       </c>
       <c r="B276" t="s">
         <v>7</v>
       </c>
-      <c r="C276" s="4" t="s">
+      <c r="C276" t="s">
         <v>117</v>
       </c>
       <c r="D276" t="str">
@@ -4554,14 +4532,14 @@
         <v>LS2_CD11:%</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>6</v>
       </c>
       <c r="B277" t="s">
         <v>7</v>
       </c>
-      <c r="C277" s="4" t="s">
+      <c r="C277" t="s">
         <v>118</v>
       </c>
       <c r="D277" t="str">
@@ -4569,14 +4547,14 @@
         <v>LS2_WD11:%</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>6</v>
       </c>
       <c r="B278" t="s">
         <v>7</v>
       </c>
-      <c r="C278" s="4" t="s">
+      <c r="C278" t="s">
         <v>119</v>
       </c>
       <c r="D278" t="str">
@@ -4584,14 +4562,14 @@
         <v>LS2_CD12:%</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>6</v>
       </c>
       <c r="B279" t="s">
         <v>7</v>
       </c>
-      <c r="C279" s="4" t="s">
+      <c r="C279" t="s">
         <v>120</v>
       </c>
       <c r="D279" t="str">
@@ -4599,7 +4577,7 @@
         <v>LS2_WD12:%</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>6</v>
       </c>
@@ -4614,7 +4592,7 @@
         <v>FS2_BTS:%</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>6</v>
       </c>
@@ -4629,7 +4607,7 @@
         <v>FS2_BBS:%</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>6</v>
       </c>
@@ -4644,7 +4622,7 @@
         <v>FS2_BMS:%</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>6</v>
       </c>
@@ -4659,14 +4637,14 @@
         <v>FS2_CG01:%</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>6</v>
       </c>
       <c r="B284" t="s">
         <v>7</v>
       </c>
-      <c r="C284" s="3" t="s">
+      <c r="C284" t="s">
         <v>125</v>
       </c>
       <c r="D284" t="str">
@@ -4674,14 +4652,14 @@
         <v>LS3_CD01:%</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>6</v>
       </c>
       <c r="B285" t="s">
         <v>7</v>
       </c>
-      <c r="C285" s="3" t="s">
+      <c r="C285" t="s">
         <v>126</v>
       </c>
       <c r="D285" t="str">
@@ -4689,14 +4667,14 @@
         <v>LS3_WD01:%</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>6</v>
       </c>
       <c r="B286" t="s">
         <v>7</v>
       </c>
-      <c r="C286" s="3" t="s">
+      <c r="C286" t="s">
         <v>127</v>
       </c>
       <c r="D286" t="str">
@@ -4704,14 +4682,14 @@
         <v>LS3_CD02:%</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>6</v>
       </c>
       <c r="B287" t="s">
         <v>7</v>
       </c>
-      <c r="C287" s="3" t="s">
+      <c r="C287" t="s">
         <v>128</v>
       </c>
       <c r="D287" t="str">
@@ -4719,14 +4697,14 @@
         <v>LS3_WD02:%</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>6</v>
       </c>
       <c r="B288" t="s">
         <v>7</v>
       </c>
-      <c r="C288" s="3" t="s">
+      <c r="C288" t="s">
         <v>129</v>
       </c>
       <c r="D288" t="str">
@@ -4734,14 +4712,14 @@
         <v>LS3_CD03:%</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>6</v>
       </c>
       <c r="B289" t="s">
         <v>7</v>
       </c>
-      <c r="C289" s="3" t="s">
+      <c r="C289" t="s">
         <v>130</v>
       </c>
       <c r="D289" t="str">
@@ -4749,14 +4727,14 @@
         <v>LS3_WD03:%</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>6</v>
       </c>
       <c r="B290" t="s">
         <v>7</v>
       </c>
-      <c r="C290" s="3" t="s">
+      <c r="C290" t="s">
         <v>131</v>
       </c>
       <c r="D290" t="str">
@@ -4764,14 +4742,14 @@
         <v>LS3_CD04:%</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>6</v>
       </c>
       <c r="B291" t="s">
         <v>7</v>
       </c>
-      <c r="C291" s="3" t="s">
+      <c r="C291" t="s">
         <v>132</v>
       </c>
       <c r="D291" t="str">
@@ -4779,14 +4757,14 @@
         <v>LS3_WD04:%</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>6</v>
       </c>
       <c r="B292" t="s">
         <v>7</v>
       </c>
-      <c r="C292" s="3" t="s">
+      <c r="C292" t="s">
         <v>133</v>
       </c>
       <c r="D292" t="str">
@@ -4794,14 +4772,14 @@
         <v>LS3_CD05:%</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>6</v>
       </c>
       <c r="B293" t="s">
         <v>7</v>
       </c>
-      <c r="C293" s="3" t="s">
+      <c r="C293" t="s">
         <v>134</v>
       </c>
       <c r="D293" t="str">
@@ -4809,14 +4787,14 @@
         <v>LS3_WD05:%</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>6</v>
       </c>
       <c r="B294" t="s">
         <v>7</v>
       </c>
-      <c r="C294" s="3" t="s">
+      <c r="C294" t="s">
         <v>135</v>
       </c>
       <c r="D294" t="str">
@@ -4824,14 +4802,14 @@
         <v>LS3_CD06:%</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>6</v>
       </c>
       <c r="B295" t="s">
         <v>7</v>
       </c>
-      <c r="C295" s="3" t="s">
+      <c r="C295" t="s">
         <v>136</v>
       </c>
       <c r="D295" t="str">
@@ -4839,7 +4817,7 @@
         <v>LS3_WD06:%</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
         <v>7</v>
       </c>
@@ -4851,7 +4829,7 @@
         <v>LS3_BTS1:%</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>6</v>
       </c>
@@ -4866,7 +4844,7 @@
         <v>BDS_BTS:%</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>6</v>
       </c>
@@ -4881,7 +4859,7 @@
         <v>BDS_BBS:%</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>6</v>
       </c>
@@ -4896,12 +4874,12 @@
         <v>BDS_FFS:%</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E302" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>6</v>
       </c>
@@ -4915,7 +4893,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>6</v>
       </c>
@@ -4929,7 +4907,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>6</v>
       </c>
@@ -4943,7 +4921,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>6</v>
       </c>
@@ -4957,7 +4935,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>6</v>
       </c>
@@ -4971,7 +4949,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>6</v>
       </c>
@@ -4985,7 +4963,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>6</v>
       </c>
@@ -4999,7 +4977,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>6</v>
       </c>
@@ -5013,7 +4991,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>6</v>
       </c>
@@ -5027,7 +5005,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>6</v>
       </c>
@@ -5041,7 +5019,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>6</v>
       </c>
@@ -5056,7 +5034,7 @@
         <v>FS_PTG:%</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>6</v>
       </c>
@@ -5071,7 +5049,7 @@
         <v>FS_F1S1:%</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>6</v>
       </c>
@@ -5086,7 +5064,7 @@
         <v>FS_PBD:%</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>6</v>
       </c>
@@ -5101,7 +5079,7 @@
         <v>FS_F1S2:%</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>6</v>
       </c>
@@ -5116,7 +5094,7 @@
         <v>FS_F2S1:%</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>6</v>
       </c>
@@ -5131,7 +5109,7 @@
         <v>FS_F2S2:%</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>6</v>
       </c>
@@ -5146,7 +5124,7 @@
         <v>FS_F3S1:%</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>6</v>
       </c>
@@ -5161,7 +5139,7 @@
         <v>FS_F3S2:%</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>6</v>
       </c>
@@ -5176,7 +5154,7 @@
         <v>RBT_BF00:%</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>6</v>
       </c>
@@ -5191,7 +5169,7 @@
         <v>RBT_RFFS:%</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>153</v>
       </c>
@@ -5211,7 +5189,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5223,7 +5201,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
